--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0AE127-1FA8-422C-B719-02F93976F895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F13C54-E6F0-446A-A08E-1591105CE975}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Digikey part #</t>
   </si>
@@ -126,15 +126,6 @@
     <t xml:space="preserve">345-1092-ND‎ </t>
   </si>
   <si>
-    <t>Heatsink</t>
-  </si>
-  <si>
-    <t>Thermal paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎1168-1380-ND‎ </t>
-  </si>
-  <si>
     <t>497-1184-1-ND</t>
   </si>
   <si>
@@ -181,6 +172,51 @@
   </si>
   <si>
     <t>497-6217-5-ND</t>
+  </si>
+  <si>
+    <t>A30603-ND</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>A30604-ND</t>
+  </si>
+  <si>
+    <t>A30591-ND</t>
+  </si>
+  <si>
+    <t>A30592-ND</t>
+  </si>
+  <si>
+    <t>4 pin female connector VAL-U-LOK</t>
+  </si>
+  <si>
+    <t>6 pin female connector VAL-U-LOK</t>
+  </si>
+  <si>
+    <t>4 pin male connector VAL-U-LOK</t>
+  </si>
+  <si>
+    <t>6 pin male connector VAL-U-LOK</t>
+  </si>
+  <si>
+    <t>A99267CT-ND</t>
+  </si>
+  <si>
+    <t>VAL-U-LOK crimp pin</t>
+  </si>
+  <si>
+    <t>Heatsink, optional</t>
+  </si>
+  <si>
+    <t>Thermal paste, for heatsink</t>
+  </si>
+  <si>
+    <t>345-1006-ND</t>
   </si>
 </sst>
 </file>
@@ -498,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +565,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -548,8 +584,8 @@
         <v>4.9799999999999995</v>
       </c>
       <c r="K2">
-        <f>SUM(I2:I99)</f>
-        <v>68.469999999999985</v>
+        <f>SUM(I2:I106)</f>
+        <v>70.749999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -557,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -569,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">D3*C3</f>
+        <f t="shared" ref="I3:I21" si="0">D3*C3</f>
         <v>2.31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -617,7 +653,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -629,7 +665,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -662,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -725,7 +761,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -743,7 +779,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -755,7 +791,7 @@
         <v>22.5</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -785,10 +821,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -797,7 +833,7 @@
         <v>0.35</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -806,7 +842,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -815,7 +851,7 @@
         <v>0.31</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -824,7 +860,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -833,7 +869,7 @@
         <v>0.91</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <f>D16*C16</f>
@@ -841,25 +877,127 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D17*C17</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <f>D18*C18</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.21</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.24</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.05</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1.46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3.82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
